--- a/qualitative/coding-book-nr.xlsx
+++ b/qualitative/coding-book-nr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/curiouslemur/Desktop/WPI/__chemistry-ar-vr/qualitative/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D695FB-6929-F042-A89A-6ECD5D3D3D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B188046D-2FB4-9D4F-9294-12B16D7C2EA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2920" yWindow="-21100" windowWidth="38400" windowHeight="21100" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pre" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="325">
   <si>
     <t>Study Type</t>
   </si>
@@ -3722,16 +3722,16 @@
   <dimension ref="A1:W35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="119" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="M20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L4" sqref="L4"/>
+      <selection pane="bottomRight" activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" customWidth="1"/>
     <col min="3" max="3" width="38.83203125" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="16.1640625" customWidth="1"/>
@@ -4132,9 +4132,7 @@
       <c r="L7" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="M7" s="6" t="s">
-        <v>297</v>
-      </c>
+      <c r="M7" s="6"/>
       <c r="N7" s="6" t="s">
         <v>181</v>
       </c>
@@ -4255,7 +4253,9 @@
       <c r="K9" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="L9" s="6"/>
+      <c r="L9" s="6" t="s">
+        <v>310</v>
+      </c>
       <c r="M9" s="6"/>
       <c r="N9" s="6" t="s">
         <v>189</v>
@@ -4436,11 +4436,15 @@
       <c r="L12" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="M12" s="6"/>
+      <c r="M12" s="6" t="s">
+        <v>310</v>
+      </c>
       <c r="N12" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="O12" s="6"/>
+      <c r="O12" s="6" t="s">
+        <v>298</v>
+      </c>
       <c r="P12" s="6"/>
       <c r="Q12" s="6" t="s">
         <v>202</v>
@@ -4801,9 +4805,7 @@
       <c r="N18" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="O18" s="6" t="s">
-        <v>302</v>
-      </c>
+      <c r="O18" s="6"/>
       <c r="P18" s="6"/>
       <c r="Q18" s="6" t="s">
         <v>226</v>
@@ -4914,7 +4916,7 @@
         <v>232</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="M20" s="6"/>
       <c r="N20" s="6" t="s">
@@ -4975,7 +4977,9 @@
       <c r="L21" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="M21" s="6"/>
+      <c r="M21" s="6" t="s">
+        <v>313</v>
+      </c>
       <c r="N21" s="6" t="s">
         <v>237</v>
       </c>
@@ -5056,7 +5060,9 @@
       <c r="L23" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="M23" s="6"/>
+      <c r="M23" s="6" t="s">
+        <v>296</v>
+      </c>
       <c r="N23" s="6" t="s">
         <v>241</v>
       </c>
@@ -5181,7 +5187,9 @@
       <c r="L25" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="M25" s="6"/>
+      <c r="M25" s="6" t="s">
+        <v>318</v>
+      </c>
       <c r="N25" s="6" t="s">
         <v>248</v>
       </c>
@@ -5468,7 +5476,7 @@
         <v>266</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="M30" s="6" t="s">
         <v>302</v>
@@ -5774,7 +5782,7 @@
         <v>317</v>
       </c>
       <c r="M35" s="6" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="N35" s="6" t="s">
         <v>287</v>
